--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643693C-BA11-4FB8-B205-898EDA9A8924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3345" yWindow="1725" windowWidth="18705" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Technology" sheetId="1" r:id="rId1"/>
+    <sheet name="TechnologyTypeData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +25,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+  <si>
+    <t>TechnologyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechCostMaterialList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechCostUnitMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreTechList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechGetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,14 +128,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -73,7 +223,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -330,13 +480,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93412645-9B14-4FF7-A78F-C26FF040C3E4}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="11.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643693C-BA11-4FB8-B205-898EDA9A8924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A994F6A-1FC6-46D1-AD52-A2D3EB8B77EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="1725" windowWidth="18705" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,14 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TechCostUnitMin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResearchTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PreTechList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,13 +78,28 @@
   <si>
     <t>ss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Technology/Icon/Tech_Icon_100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +114,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,11 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -481,86 +507,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1">
-        <v>100</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -599,16 +620,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A994F6A-1FC6-46D1-AD52-A2D3EB8B77EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49FB19E-5270-4CCC-A2ED-AA7DA7B0D2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,32 @@
   </si>
   <si>
     <t>SpriteOutput/Technology/Icon/Tech_Icon_100</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechName_101</t>
+  </si>
+  <si>
+    <t>TechName_102</t>
+  </si>
+  <si>
+    <t>TechName_103</t>
+  </si>
+  <si>
+    <t>TechDesc_101</t>
+  </si>
+  <si>
+    <t>TechDesc_102</t>
+  </si>
+  <si>
+    <t>TechDesc_103</t>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,12 +547,13 @@
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,16 +573,19 @@
         <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -574,13 +604,112 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
         <v>1000</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49FB19E-5270-4CCC-A2ED-AA7DA7B0D2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA385AA6-6F5D-468B-B110-8F6BA41A1AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,183 +537,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1">
         <v>1000</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>2500</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>3500</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>5000</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA385AA6-6F5D-468B-B110-8F6BA41A1AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE8E41-191A-43D7-B888-C75BE1B87235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{B6BB53A5-4920-43BF-9589-899F9F444BC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">科技完成效果
+1.解锁科技
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2.解锁建筑</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7EF08B7E-A29D-42D0-B05A-6E16AC83DCA0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>完成参数
+1. 科技ID
+2. 建筑ID</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +176,18 @@
   </si>
   <si>
     <t>BaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +218,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -180,15 +261,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,13 +635,15 @@
     <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,16 +669,25 @@
         <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -617,17 +712,26 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
         <v>1000</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>101102</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -652,17 +756,26 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>2500</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -687,17 +800,26 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>3500</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -722,20 +844,30 @@
       <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>5000</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>12</v>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE8E41-191A-43D7-B888-C75BE1B87235}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459ED97E-0221-4718-BEA7-D0BE43073D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1095" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>EffectParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +274,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,7 +628,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,8 +731,8 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="4">
-        <v>101102</v>
+      <c r="N2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">

--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459ED97E-0221-4718-BEA7-D0BE43073D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8AA95-31F7-46B9-B434-FEC6B3385097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1095" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="870" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TechCostMaterialList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PreTechList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,11 +183,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100,101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EffectParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101</t>
+  </si>
+  <si>
+    <t>TechRequireID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -652,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -670,22 +669,22 @@
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>28</v>
@@ -702,16 +701,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -719,20 +718,20 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
+      <c r="J2" s="1">
+        <v>100</v>
       </c>
       <c r="K2" s="1">
         <v>1000</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -746,16 +745,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
@@ -763,17 +762,17 @@
       <c r="I3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
+      <c r="J3" s="1">
+        <v>100</v>
       </c>
       <c r="K3" s="1">
         <v>2500</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="N3" s="1">
         <v>100</v>
@@ -790,16 +789,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
@@ -807,17 +806,17 @@
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
+      <c r="J4" s="1">
+        <v>100</v>
       </c>
       <c r="K4" s="1">
         <v>3500</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N4" s="1">
         <v>101</v>
@@ -834,16 +833,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>4</v>
@@ -851,17 +850,17 @@
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
+      <c r="J5" s="1">
+        <v>100</v>
       </c>
       <c r="K5" s="1">
         <v>5000</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="N5" s="1">
         <v>101</v>
@@ -904,16 +903,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/TechnologyMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE8AA95-31F7-46B9-B434-FEC6B3385097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0917C136-3031-4DFB-AF75-4998E80080FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="870" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,37 +41,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">科技完成效果
-1.解锁科技
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2.解锁建筑</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7EF08B7E-A29D-42D0-B05A-6E16AC83DCA0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>完成参数
-1. 科技ID
-2. 建筑ID</t>
+          <t>科技完成效果
+Json</t>
         </r>
       </text>
     </comment>
@@ -80,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>TechnologyID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,13 +152,6 @@
   <si>
     <t>TechEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectParam</t>
   </si>
   <si>
     <t>TechRequireID</t>
@@ -198,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,14 +193,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,9 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -643,10 +596,9 @@
     <col min="11" max="11" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="21" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,7 +627,7 @@
         <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>14</v>
@@ -686,11 +638,8 @@
       <c r="M1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -730,11 +679,8 @@
       <c r="M2" s="1">
         <v>100</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -774,11 +720,8 @@
       <c r="M3" s="1">
         <v>101</v>
       </c>
-      <c r="N3" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -818,11 +761,8 @@
       <c r="M4" s="1">
         <v>100</v>
       </c>
-      <c r="N4" s="1">
-        <v>101</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
@@ -860,9 +800,6 @@
         <v>11</v>
       </c>
       <c r="M5" s="1">
-        <v>101</v>
-      </c>
-      <c r="N5" s="1">
         <v>101</v>
       </c>
     </row>
